--- a/MDGL.xlsx
+++ b/MDGL.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B7FB95-1538-4E9C-BF72-64C27F7B229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A3EB54-82EE-45EF-93FB-221DEDB98B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49740" yWindow="1860" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{CD9C9B3D-DA47-4F78-B4CB-7782A0A847DF}"/>
+    <workbookView xWindow="-51510" yWindow="30" windowWidth="29955" windowHeight="20700" xr2:uid="{CD9C9B3D-DA47-4F78-B4CB-7782A0A847DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Rezdiffra" sheetId="3" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Price</t>
   </si>
@@ -175,13 +176,88 @@
   </si>
   <si>
     <t>Ending Patients</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Rezdiffra</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>resmetirom</t>
+  </si>
+  <si>
+    <t>Thyroid Beta agonist</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>80mg vs. 100mg vs. placebo</t>
+  </si>
+  <si>
+    <t>25.9% vs. 29.9% vs. 9.7%</t>
+  </si>
+  <si>
+    <t>Fibrosis improvement of at least one stage with no worsening of NAFLD: 24.2% 25.9% vs. 14.2%</t>
+  </si>
+  <si>
+    <t>NASH/NAFLD, MASH. F0 (no fibrosis) to F4 (cirrhosis). Global prevalence of NASH is 4-6%.</t>
+  </si>
+  <si>
+    <t>Phase III "MAESTRO-NASH" n=966 NASH 54 months - NCT03900429</t>
+  </si>
+  <si>
+    <t>PE: NASH Resolution with no worsening of fibrosis at 52 weeks with biopsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  NAFLD activity score (0 to 8 scale)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VCTE evaluation</t>
+  </si>
+  <si>
+    <t>50% required to be F3, no more than 15% F1. Biopsies taken at baseline and 52 weeks.</t>
+  </si>
+  <si>
+    <t>Co-primary: NASH Resolution defined as hepatocellular ballooning score of 0, lobular inflammation score of 0 or 1, and reduction in NAFLD by &gt;= 2 with no worsening of fibrosis</t>
+  </si>
+  <si>
+    <t>Co-primary:  improvement in fibrosis by at least one stage with no worsening of the NAFLD score.</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Roche royalty</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Ozempic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -196,9 +272,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -305,10 +390,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -329,7 +415,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -338,8 +423,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -688,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B8A1CC-102E-4CC2-9308-FC3A42BEBBEA}">
-  <dimension ref="B2:O10"/>
+  <dimension ref="B2:N10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,166 +787,137 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="M2" t="s">
+      <c r="E2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="1">
-        <v>245.16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M2" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="M3" t="s">
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="2">
+      <c r="M3" s="2">
         <v>21.712676999999999</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="M4" t="s">
+      <c r="L4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="2">
-        <f>+N2*N3</f>
-        <v>5323.0798933199994</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M4" s="2">
+        <f>+M2*M3</f>
+        <v>4646.5128779999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="2">
+      <c r="M5" s="2">
         <f>494.597+5+563.197</f>
         <v>1062.7939999999999</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="2">
+      <c r="M6" s="2">
         <v>116.607</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="2">
-        <f>+N4-N5+N6</f>
-        <v>4376.8928933199995</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M7" s="2">
+        <f>+M4-M5+M6</f>
+        <v>3700.3258779999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -866,14 +925,127 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EFB434-8395-4AD8-A583-6409C6F66DC7}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8767C605-905A-4130-927E-5743413F9EA1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C50727-8E53-4166-B7B5-60BA19DEC21C}">
   <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -884,7 +1056,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1027,27 +1199,27 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="M3" s="4">
-        <f>0.05/4</f>
+        <f t="shared" ref="M3:R3" si="1">0.05/4</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="N3" s="4">
-        <f>0.05/4</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="O3" s="4">
-        <f>0.05/4</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="P3" s="4">
-        <f>0.05/4</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="Q3" s="4">
-        <f>0.05/4</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="R3" s="4">
-        <f>0.05/4</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
@@ -1104,59 +1276,59 @@
         <v>43.75</v>
       </c>
       <c r="N6" s="8">
-        <f t="shared" ref="N6:R6" si="1">+N4*N3</f>
+        <f t="shared" ref="N6:R6" si="2">+N4*N3</f>
         <v>75</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112.5</v>
       </c>
       <c r="P6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="Q6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>187.5</v>
       </c>
       <c r="R6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="17">
         <f>SUM(K6:N6)</f>
         <v>133.38800000000001</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="17">
         <f>SUM(O6:R6)</f>
         <v>675</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="17">
         <f>+R6*4*1.3</f>
         <v>1170</v>
       </c>
-      <c r="X6" s="18">
-        <f>+W6*1.2</f>
+      <c r="X6" s="17">
+        <f t="shared" ref="X6:AC6" si="3">+W6*1.2</f>
         <v>1404</v>
       </c>
-      <c r="Y6" s="18">
-        <f>+X6*1.2</f>
+      <c r="Y6" s="17">
+        <f t="shared" si="3"/>
         <v>1684.8</v>
       </c>
-      <c r="Z6" s="18">
-        <f>+Y6*1.2</f>
+      <c r="Z6" s="17">
+        <f t="shared" si="3"/>
         <v>2021.7599999999998</v>
       </c>
-      <c r="AA6" s="18">
-        <f>+Z6*1.2</f>
+      <c r="AA6" s="17">
+        <f t="shared" si="3"/>
         <v>2426.1119999999996</v>
       </c>
-      <c r="AB6" s="18">
-        <f>+AA6*1.2</f>
+      <c r="AB6" s="17">
+        <f t="shared" si="3"/>
         <v>2911.3343999999993</v>
       </c>
-      <c r="AC6" s="18">
-        <f>+AB6*1.2</f>
+      <c r="AC6" s="17">
+        <f t="shared" si="3"/>
         <v>3493.601279999999</v>
       </c>
     </row>
@@ -1283,6 +1455,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{780C59A9-4B38-4F69-B050-5004B8832032}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/MDGL.xlsx
+++ b/MDGL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A3EB54-82EE-45EF-93FB-221DEDB98B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D71B0BB-32F5-4C86-99AE-C37B1360889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51510" yWindow="30" windowWidth="29955" windowHeight="20700" xr2:uid="{CD9C9B3D-DA47-4F78-B4CB-7782A0A847DF}"/>
+    <workbookView xWindow="-29490" yWindow="4950" windowWidth="29715" windowHeight="15315" activeTab="2" xr2:uid="{CD9C9B3D-DA47-4F78-B4CB-7782A0A847DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={0084F6C0-C4DE-40F4-B8EA-320CFCC758B6}</author>
+    <author>tc={EA1EB5D7-BC93-4D64-911A-72B44E50DBAD}</author>
+    <author>tc={93A33977-971C-4625-90EE-FFB400AA64C9}</author>
+    <author>tc={F446547B-A61A-48DA-BB00-A3E032AEE71B}</author>
+    <author>tc={1F503422-794D-452D-900D-260AC6627B06}</author>
   </authors>
   <commentList>
     <comment ref="L6" authorId="0" shapeId="0" xr:uid="{0084F6C0-C4DE-40F4-B8EA-320CFCC758B6}">
@@ -51,12 +55,44 @@
     Exited Q with 2k patients</t>
       </text>
     </comment>
+    <comment ref="P6" authorId="1" shapeId="0" xr:uid="{EA1EB5D7-BC93-4D64-911A-72B44E50DBAD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5/6/25 consensus: 156m</t>
+      </text>
+    </comment>
+    <comment ref="Q6" authorId="2" shapeId="0" xr:uid="{93A33977-971C-4625-90EE-FFB400AA64C9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5/6/25 consensus: 177m</t>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="3" shapeId="0" xr:uid="{F446547B-A61A-48DA-BB00-A3E032AEE71B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5/6/25 consensus: 198m</t>
+      </text>
+    </comment>
+    <comment ref="W6" authorId="4" shapeId="0" xr:uid="{1F503422-794D-452D-900D-260AC6627B06}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5/6/25 consensus: 1.1B</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Price</t>
   </si>
@@ -127,9 +163,6 @@
     <t>Interest Income</t>
   </si>
   <si>
-    <t>Pretax Income</t>
-  </si>
-  <si>
     <t>Operating Income</t>
   </si>
   <si>
@@ -251,13 +284,25 @@
   </si>
   <si>
     <t>Ozempic</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -284,6 +329,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -394,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -425,6 +476,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -771,6 +823,18 @@
   <threadedComment ref="L6" dT="2024-09-21T16:34:21.05" personId="{94FDE7B4-9360-455B-A302-4745E0D89085}" id="{0084F6C0-C4DE-40F4-B8EA-320CFCC758B6}">
     <text>Exited Q with 2k patients</text>
   </threadedComment>
+  <threadedComment ref="P6" dT="2025-05-06T13:10:33.54" personId="{94FDE7B4-9360-455B-A302-4745E0D89085}" id="{EA1EB5D7-BC93-4D64-911A-72B44E50DBAD}">
+    <text>5/6/25 consensus: 156m</text>
+  </threadedComment>
+  <threadedComment ref="Q6" dT="2025-05-06T13:10:44.91" personId="{94FDE7B4-9360-455B-A302-4745E0D89085}" id="{93A33977-971C-4625-90EE-FFB400AA64C9}">
+    <text>5/6/25 consensus: 177m</text>
+  </threadedComment>
+  <threadedComment ref="R6" dT="2025-05-06T13:10:52.65" personId="{94FDE7B4-9360-455B-A302-4745E0D89085}" id="{F446547B-A61A-48DA-BB00-A3E032AEE71B}">
+    <text>5/6/25 consensus: 198m</text>
+  </threadedComment>
+  <threadedComment ref="W6" dT="2025-05-06T13:11:03.48" personId="{94FDE7B4-9360-455B-A302-4745E0D89085}" id="{1F503422-794D-452D-900D-260AC6627B06}">
+    <text>5/6/25 consensus: 1.1B</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -778,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B8A1CC-102E-4CC2-9308-FC3A42BEBBEA}">
   <dimension ref="B2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -793,54 +857,54 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="I2" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>214</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
         <v>1</v>
@@ -860,7 +924,7 @@
       </c>
       <c r="M4" s="2">
         <f>+M2*M3</f>
-        <v>4646.5128779999995</v>
+        <v>6622.3664849999996</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -898,7 +962,7 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>3700.3258779999996</v>
+        <v>5676.1794849999997</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -944,89 +1008,89 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1039,13 +1103,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C50727-8E53-4166-B7B5-60BA19DEC21C}">
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1053,6 +1117,7 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
@@ -1098,16 +1163,16 @@
         <v>19</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="T2">
         <v>2023</v>
@@ -1225,7 +1290,7 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="5">
         <v>2000</v>
@@ -1266,29 +1331,29 @@
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
       <c r="L6" s="8">
         <v>14.638</v>
       </c>
       <c r="M6" s="8">
-        <f>+M4*M3</f>
-        <v>43.75</v>
+        <v>62.174999999999997</v>
       </c>
       <c r="N6" s="8">
-        <f t="shared" ref="N6:R6" si="2">+N4*N3</f>
-        <v>75</v>
+        <v>103.32</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="2"/>
-        <v>112.5</v>
+        <v>137.30000000000001</v>
       </c>
       <c r="P6" s="8">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N6:R6" si="2">+Q4*Q3</f>
         <v>187.5</v>
       </c>
       <c r="R6" s="8">
@@ -1297,11 +1362,11 @@
       </c>
       <c r="U6" s="17">
         <f>SUM(K6:N6)</f>
-        <v>133.38800000000001</v>
+        <v>180.13299999999998</v>
       </c>
       <c r="V6" s="17">
         <f>SUM(O6:R6)</f>
-        <v>675</v>
+        <v>709.8</v>
       </c>
       <c r="W6" s="17">
         <f>+R6*4*1.3</f>
@@ -1334,62 +1399,295 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
       </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
       <c r="L7" s="5">
         <v>0.63600000000000001</v>
       </c>
+      <c r="M7" s="5">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="O7" s="2">
+        <v>4.5129999999999999</v>
+      </c>
+      <c r="U7" s="2">
+        <f>SUM(K7:N7)</f>
+        <v>6.2330000000000005</v>
+      </c>
+      <c r="V7" s="2">
+        <f>+V6*0.03</f>
+        <v>21.293999999999997</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" ref="W7:AC7" si="4">+W6*0.03</f>
+        <v>35.1</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="4"/>
+        <v>42.12</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="4"/>
+        <v>50.543999999999997</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="4"/>
+        <v>60.652799999999992</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" si="4"/>
+        <v>72.783359999999988</v>
+      </c>
+      <c r="AB7" s="2">
+        <f t="shared" si="4"/>
+        <v>87.340031999999979</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" si="4"/>
+        <v>104.80803839999996</v>
+      </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="5">
         <f>+H6-H7</f>
         <v>0</v>
       </c>
+      <c r="J8" s="2">
+        <f>+J6-J7</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <f>+K6-K7</f>
+        <v>0</v>
+      </c>
       <c r="L8" s="5">
         <f>+L6-L7</f>
         <v>14.002000000000001</v>
       </c>
+      <c r="M8" s="5">
+        <f>+M6-M7</f>
+        <v>60.022999999999996</v>
+      </c>
+      <c r="N8" s="2">
+        <f>+N6-N7</f>
+        <v>99.875</v>
+      </c>
+      <c r="O8" s="2">
+        <f>+O6-O7</f>
+        <v>132.78700000000001</v>
+      </c>
+      <c r="U8" s="2">
+        <f>+U6-U7</f>
+        <v>173.89999999999998</v>
+      </c>
+      <c r="V8" s="2">
+        <f>+V6-V7</f>
+        <v>688.50599999999997</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" ref="W8:AC8" si="5">+W6-W7</f>
+        <v>1134.9000000000001</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="5"/>
+        <v>1361.88</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="5"/>
+        <v>1634.2559999999999</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="5"/>
+        <v>1961.1071999999997</v>
+      </c>
+      <c r="AA8" s="2">
+        <f t="shared" si="5"/>
+        <v>2353.3286399999997</v>
+      </c>
+      <c r="AB8" s="2">
+        <f t="shared" si="5"/>
+        <v>2823.9943679999992</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="5"/>
+        <v>3388.793241599999</v>
+      </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="5">
         <v>68.605000000000004</v>
       </c>
+      <c r="J9" s="2">
+        <v>70.64</v>
+      </c>
+      <c r="K9" s="2">
+        <v>71.236999999999995</v>
+      </c>
       <c r="L9" s="5">
         <v>71.090999999999994</v>
       </c>
+      <c r="M9" s="5">
+        <v>68.742000000000004</v>
+      </c>
+      <c r="N9" s="2">
+        <v>25.648</v>
+      </c>
+      <c r="O9" s="2">
+        <v>44.171999999999997</v>
+      </c>
+      <c r="U9" s="2">
+        <f>SUM(K9:N9)</f>
+        <v>236.71799999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="5">
         <v>17.844999999999999</v>
       </c>
+      <c r="J10" s="2">
+        <v>46.536000000000001</v>
+      </c>
+      <c r="K10" s="2">
+        <v>80.8</v>
+      </c>
       <c r="L10" s="5">
         <v>105.44799999999999</v>
       </c>
+      <c r="M10" s="5">
+        <v>107.58499999999999</v>
+      </c>
+      <c r="N10" s="2">
+        <v>141.22399999999999</v>
+      </c>
+      <c r="O10" s="2">
+        <v>167.876</v>
+      </c>
+      <c r="U10" s="2">
+        <f>SUM(K10:N10)</f>
+        <v>435.05699999999996</v>
+      </c>
+      <c r="V10" s="2">
+        <f>+U10*1.05</f>
+        <v>456.80984999999998</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" ref="W10:AC10" si="6">+V10*1.05</f>
+        <v>479.65034250000002</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="6"/>
+        <v>503.63285962500004</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="6"/>
+        <v>528.81450260625002</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="6"/>
+        <v>555.25522773656257</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" si="6"/>
+        <v>583.01798912339075</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="6"/>
+        <v>612.1688885795603</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="6"/>
+        <v>642.77733300853833</v>
+      </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="H11" s="5">
         <f>+H9+H10</f>
         <v>86.45</v>
       </c>
+      <c r="J11" s="2">
+        <f>+J9+J10</f>
+        <v>117.176</v>
+      </c>
+      <c r="K11" s="2">
+        <f>+K9+K10</f>
+        <v>152.03699999999998</v>
+      </c>
       <c r="L11" s="5">
         <f>+L9+L10</f>
         <v>176.53899999999999</v>
       </c>
+      <c r="M11" s="5">
+        <f>+M9+M10</f>
+        <v>176.327</v>
+      </c>
+      <c r="N11" s="2">
+        <f>+N9+N10</f>
+        <v>166.87199999999999</v>
+      </c>
+      <c r="O11" s="2">
+        <f>+O9+O10</f>
+        <v>212.048</v>
+      </c>
+      <c r="U11" s="2">
+        <f>+U9+U10</f>
+        <v>671.77499999999998</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" ref="V11:AC11" si="7">+V9+V10</f>
+        <v>456.80984999999998</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="7"/>
+        <v>479.65034250000002</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="7"/>
+        <v>503.63285962500004</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="7"/>
+        <v>528.81450260625002</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="7"/>
+        <v>555.25522773656257</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="7"/>
+        <v>583.01798912339075</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="7"/>
+        <v>612.1688885795603</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="7"/>
+        <v>642.77733300853833</v>
+      </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -1399,10 +1697,66 @@
         <f>+H8-H11</f>
         <v>-86.45</v>
       </c>
+      <c r="J12" s="2">
+        <f>+J8-J11</f>
+        <v>-117.176</v>
+      </c>
+      <c r="K12" s="2">
+        <f>+K8-K11</f>
+        <v>-152.03699999999998</v>
+      </c>
       <c r="L12" s="5">
         <f>+L8-L11</f>
         <v>-162.53699999999998</v>
       </c>
+      <c r="M12" s="5">
+        <f>+M8-M11</f>
+        <v>-116.304</v>
+      </c>
+      <c r="N12" s="2">
+        <f>+N8-N11</f>
+        <v>-66.996999999999986</v>
+      </c>
+      <c r="O12" s="2">
+        <f>+O8-O11</f>
+        <v>-79.260999999999996</v>
+      </c>
+      <c r="U12" s="2">
+        <f>+U8-U11</f>
+        <v>-497.875</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" ref="V12:AC12" si="8">+V8-V11</f>
+        <v>231.69614999999999</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="8"/>
+        <v>655.24965750000001</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="8"/>
+        <v>858.24714037500007</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="8"/>
+        <v>1105.4414973937498</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="8"/>
+        <v>1405.8519722634371</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="8"/>
+        <v>1770.3106508766091</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" si="8"/>
+        <v>2211.825479420439</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" si="8"/>
+        <v>2746.0159085914606</v>
+      </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
@@ -1412,10 +1766,34 @@
         <f>3.551-2.901</f>
         <v>0.65000000000000036</v>
       </c>
+      <c r="J13" s="2">
+        <f>8.953-3.971</f>
+        <v>4.9819999999999993</v>
+      </c>
+      <c r="K13" s="2">
+        <f>8.334-3.838</f>
+        <v>4.4959999999999996</v>
+      </c>
       <c r="L13" s="5">
         <f>14.222-3.656</f>
         <v>10.565999999999999</v>
       </c>
+      <c r="M13" s="5">
+        <f>13.019-3.679</f>
+        <v>9.34</v>
+      </c>
+      <c r="N13" s="2">
+        <f>11.079-3.498</f>
+        <v>7.5810000000000004</v>
+      </c>
+      <c r="O13" s="2">
+        <f>9.37-3.297</f>
+        <v>6.0729999999999986</v>
+      </c>
+      <c r="U13" s="2">
+        <f>SUM(K13:N13)</f>
+        <v>31.982999999999997</v>
+      </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -1425,10 +1803,66 @@
         <f>+H12+H13</f>
         <v>-85.8</v>
       </c>
+      <c r="J14" s="2">
+        <f>+J12+J13</f>
+        <v>-112.194</v>
+      </c>
+      <c r="K14" s="2">
+        <f>+K12+K13</f>
+        <v>-147.54099999999997</v>
+      </c>
       <c r="L14" s="5">
         <f>+L12+L13</f>
         <v>-151.97099999999998</v>
       </c>
+      <c r="M14" s="5">
+        <f>+M12+M13</f>
+        <v>-106.964</v>
+      </c>
+      <c r="N14" s="2">
+        <f>+N12+N13</f>
+        <v>-59.415999999999983</v>
+      </c>
+      <c r="O14" s="2">
+        <f>+O12+O13</f>
+        <v>-73.188000000000002</v>
+      </c>
+      <c r="U14" s="2">
+        <f>+U12+U13</f>
+        <v>-465.892</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" ref="V14:AC14" si="9">+V12+V13</f>
+        <v>231.69614999999999</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="9"/>
+        <v>655.24965750000001</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="9"/>
+        <v>858.24714037500007</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="9"/>
+        <v>1105.4414973937498</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="9"/>
+        <v>1405.8519722634371</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="9"/>
+        <v>1770.3106508766091</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="9"/>
+        <v>2211.825479420439</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="9"/>
+        <v>2746.0159085914606</v>
+      </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -1438,10 +1872,66 @@
         <f>H14/H16</f>
         <v>-4.6857203273756598</v>
       </c>
+      <c r="J15" s="4">
+        <f>J14/J16</f>
+        <v>-5.6775920783132623</v>
+      </c>
+      <c r="K15" s="4">
+        <f>K14/K16</f>
+        <v>-7.3764713158252722</v>
+      </c>
       <c r="L15" s="4">
         <f>L14/L16</f>
         <v>-7.1005706490683425</v>
       </c>
+      <c r="M15" s="4">
+        <f>M14/M16</f>
+        <v>-4.9188057222112702</v>
+      </c>
+      <c r="N15" s="4">
+        <f>N14/N16</f>
+        <v>-2.709418965613553</v>
+      </c>
+      <c r="O15" s="4">
+        <f>O14/O16</f>
+        <v>-3.312976312771617</v>
+      </c>
+      <c r="U15" s="4">
+        <f>U14/U16</f>
+        <v>-21.245062285034834</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" ref="V15:AC15" si="10">V14/V16</f>
+        <v>10.565536944083121</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="10"/>
+        <v>29.879928794302636</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="10"/>
+        <v>39.136782673280315</v>
+      </c>
+      <c r="Y15" s="4">
+        <f t="shared" si="10"/>
+        <v>50.40905073405937</v>
+      </c>
+      <c r="Z15" s="4">
+        <f t="shared" si="10"/>
+        <v>64.1080179833004</v>
+      </c>
+      <c r="AA15" s="4">
+        <f t="shared" si="10"/>
+        <v>80.727636537511088</v>
+      </c>
+      <c r="AB15" s="4">
+        <f t="shared" si="10"/>
+        <v>100.86107955044143</v>
+      </c>
+      <c r="AC15" s="4">
+        <f t="shared" si="10"/>
+        <v>125.22060695122927</v>
+      </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -1450,8 +1940,88 @@
       <c r="H16" s="5">
         <v>18.310952</v>
       </c>
+      <c r="J16" s="2">
+        <v>19.760842</v>
+      </c>
+      <c r="K16" s="2">
+        <v>20.001569</v>
+      </c>
       <c r="L16" s="5">
         <v>21.402646000000001</v>
+      </c>
+      <c r="M16" s="5">
+        <v>21.745929</v>
+      </c>
+      <c r="N16" s="2">
+        <v>21.929424999999998</v>
+      </c>
+      <c r="O16" s="2">
+        <v>22.091314000000001</v>
+      </c>
+      <c r="U16" s="2">
+        <f>+N16</f>
+        <v>21.929424999999998</v>
+      </c>
+      <c r="V16" s="2">
+        <f>+U16</f>
+        <v>21.929424999999998</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" ref="W16:AC16" si="11">+V16</f>
+        <v>21.929424999999998</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="11"/>
+        <v>21.929424999999998</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="11"/>
+        <v>21.929424999999998</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="11"/>
+        <v>21.929424999999998</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="11"/>
+        <v>21.929424999999998</v>
+      </c>
+      <c r="AB16" s="2">
+        <f t="shared" si="11"/>
+        <v>21.929424999999998</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="11"/>
+        <v>21.929424999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U18" s="20"/>
+    </row>
+    <row r="20" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="AD20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE20" s="20">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="21" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="AD21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE21" s="2">
+        <f>NPV(AE20,V14:AC14)+Main!M5-Main!M6</f>
+        <v>7713.4724818949308</v>
+      </c>
+    </row>
+    <row r="22" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="AD22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE22" s="1">
+        <f>+AE21/Main!M3</f>
+        <v>355.25202543633526</v>
       </c>
     </row>
   </sheetData>
